--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3362.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3362.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.218150264142031</v>
+        <v>0.7201011180877686</v>
       </c>
       <c r="B1">
-        <v>2.583074603235406</v>
+        <v>3.112647533416748</v>
       </c>
       <c r="C1">
-        <v>5.588225396996386</v>
+        <v>2.885094881057739</v>
       </c>
       <c r="D1">
-        <v>2.431258892009553</v>
+        <v>2.398935317993164</v>
       </c>
       <c r="E1">
-        <v>1.174266674430722</v>
+        <v>2.123542785644531</v>
       </c>
     </row>
   </sheetData>
